--- a/pred_ohlcv/54_21/2019-10-15 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 MTL ohlcv.xlsx
@@ -1068,7 +1068,7 @@
         <v>30635.90007244999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>33628.40007244999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>19020.12957244998</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>19020.12957244998</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>19020.12957244998</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>18879.07977244998</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>18639.07977244998</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>19210.03627244998</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>19210.03627244998</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>19210.03627244998</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>19210.03627244998</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-48460.60860405001</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-45932.88040405001</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-50189.81530405001</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-50189.81530405001</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-50189.81530405001</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-50189.81530405001</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-50214.75280405001</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-50210.75280405001</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-73927.16790405</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-73627.16790405</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-80955.50570405001</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-80955.50570405001</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-81556.75450405001</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-77218.51830405001</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-86178.65400405001</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-86178.65400405001</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-86178.65400405001</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-90195.45400405001</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-19698.59140405002</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-26530.08710405002</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-14366.05960405002</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-14366.05960405002</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-14866.05960405002</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-14866.05960405002</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-14866.05960405002</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-11541.39770405002</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-11541.39770405002</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-14612.78240405002</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-14485.88460405002</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-14485.88460405002</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-14228.88460405002</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-13478.88460405002</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-46511.09400405002</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-50476.49830405002</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-50476.49830405002</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-50476.49830405002</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-49430.57630405002</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-49430.57630405002</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-51743.53120405002</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-50346.38160405002</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-50346.38160405002</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-50346.38160405002</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-50346.38160405002</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-50346.38160405002</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-50346.38160405002</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-52646.38160405002</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-52638.38160405002</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-52638.38160405002</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-52638.38160405002</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-52638.38160405002</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-52638.38160405002</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-52637.38160405002</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-54573.91590405002</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-54573.91590405002</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-54573.91590405002</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-54562.90550405002</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-54562.90550405002</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-42094.61530405002</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-46703.67130405002</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-49948.54680405002</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-49948.54680405002</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-46509.54680405002</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-46509.54680405002</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-46787.54680405002</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-46787.54680405002</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-44687.54680405002</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-44687.54680405002</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-49548.52960405002</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-49432.52960405002</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-49418.98290405002</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-44743.77750405002</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-60135.42010405002</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-60135.42010405002</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-60135.42010405002</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-30385.62730405002</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-20810.44240405002</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-20946.51210405002</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-21523.15700405002</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-22023.15700405002</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-22023.15700405002</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-22133.43230405002</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-3161.794593640027</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-3161.794593640027</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>877.3969041799737</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>716.6761041799737</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>877.0533671299736</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-1921.990832870026</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-1427.483132870026</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>43965.60536712998</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>53994.14886712998</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>50199.20946712998</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>50199.20946712998</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>52703.71726712998</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>50703.71726712998</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>50703.71726712998</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>50703.71726712998</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>56554.27136712998</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>56554.27136712998</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>57052.27076712998</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>51829.27086712998</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>51830.27086712998</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>54729.06996712998</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>54328.06996712998</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>54328.06996712998</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>54328.06996712998</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>61108.06996712998</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>62836.83896712998</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>62819.83896712998</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>65854.33866712998</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>65854.33866712998</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>60526.28496712998</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-15 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 MTL ohlcv.xlsx
@@ -1068,7 +1068,7 @@
         <v>30635.90007244999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>33628.40007244999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>19020.12957244998</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>19020.12957244998</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>19020.12957244998</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>18879.07977244998</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>18639.07977244998</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>19210.03627244998</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>19210.03627244998</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>19210.03627244998</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>19210.03627244998</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-48460.60860405001</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-45932.88040405001</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-50189.81530405001</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-50189.81530405001</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-50189.81530405001</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-50189.81530405001</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-50214.75280405001</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-50210.75280405001</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-73927.16790405</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-73627.16790405</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-76252.44340405001</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-82969.60840405</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-86843.91510405</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-86791.91510405</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-86833.51580405</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-86833.51580405</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-81769.17700405</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-81769.17700405</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-82380.34580405</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-81093.49780405</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-81850.89680405</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-80955.50570405001</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-80955.50570405001</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-80955.50570405001</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-80955.50570405001</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-82898.75440405001</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-81556.75450405001</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-78819.37620405002</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-78857.02940405002</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-76285.08950405002</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-77218.51830405001</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-77218.51830405001</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-83603.14850405001</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-83603.14850405001</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-86178.65400405001</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-86178.65400405001</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-86178.65400405001</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-90195.45400405001</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-19698.59140405002</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-26530.08710405002</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-14366.05960405002</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-14366.05960405002</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-14866.05960405002</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-14866.05960405002</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-14866.05960405002</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-11541.39770405002</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-11541.39770405002</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-14612.78240405002</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-14485.88460405002</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-14485.88460405002</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-14228.88460405002</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-13478.88460405002</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-46511.09400405002</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-54573.91590405002</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-54562.90550405002</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-54562.90550405002</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-49207.13630405001</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-49207.13630405001</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-46703.67130405002</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-46703.67130405002</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-46703.67130405002</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-46703.67130405002</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-49948.54680405002</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-49948.54680405002</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-46509.54680405002</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-46509.54680405002</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-46787.54680405002</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-46787.54680405002</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-44687.54680405002</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-44687.54680405002</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-49548.52960405002</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-49432.52960405002</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-49418.98290405002</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-49418.98290405002</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-60135.42010405002</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-60135.42010405002</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-60135.42010405002</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-30385.62730405002</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-20810.44240405002</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-20946.51210405002</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-21523.15700405002</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-22023.15700405002</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-22023.15700405002</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-22133.43230405002</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-3161.794593640027</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-3161.794593640027</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>877.3969041799737</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>716.6761041799737</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>877.0533671299736</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-1921.990832870026</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-1427.483132870026</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>48204.04776712998</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>52528.06386712998</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>52528.06386712998</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>43965.60536712998</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>53994.14886712998</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>50199.20946712998</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>50199.20946712998</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>52703.71726712998</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>50703.71726712998</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>50703.71726712998</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>50703.71726712998</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>56554.27136712998</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>56554.27136712998</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>57052.27076712998</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>51829.27086712998</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>51830.27086712998</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>54729.06996712998</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>54328.06996712998</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>54328.06996712998</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>54328.06996712998</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>61108.06996712998</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>62836.83896712998</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>62819.83896712998</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>65854.33866712998</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>65854.33866712998</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>60526.28496712998</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
